--- a/output/chicago_police_clearance_rate.xlsx
+++ b/output/chicago_police_clearance_rate.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Clearance rates" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Share of clearances by type" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="By race" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="By race - annual" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="By race - time to close" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -77,11 +80,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1040,4 +1044,609 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>victim_race</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>arrest</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bar to prosecute</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>death of offender</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>not_cleared</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>all_cleared</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2607745779543197</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.09771598808341608</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04667328699106256</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5948361469712016</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4051638530287984</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>hispanic</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3118081180811808</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1199261992619926</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03690036900369004</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5313653136531366</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4686346863468634</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>indian</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.207639569049951</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1008814887365328</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06268364348677767</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6287952987267384</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3712047012732615</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4640522875816994</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.107843137254902</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0718954248366013</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3562091503267974</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6437908496732027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>incident_year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>hispanic</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>indian</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4775086505190311</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5441176470588235</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.4626865671641791</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3818181818181818</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.3278688524590164</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0.5666666666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.5322033898305085</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.4042553191489361</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5255474452554745</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4342507645259939</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.4246575342465753</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2598870056497175</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3130434782608696</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.2934782608695652</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5405405405405406</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3915211970074813</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6351351351351351</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.4029850746268657</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>0.7575757575757576</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>0.4770114942528735</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4658634538152611</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4485981308411215</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.3857142857142857</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5104364326375711</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.3237410071942446</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>victim_race</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>avg_days_to_closure</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>hispanic</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>indian</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>